--- a/森林可持续经营管理绩效指标整理20170802.xlsx
+++ b/森林可持续经营管理绩效指标整理20170802.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zll\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zll\Desktop\ForestBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5709,9 +5709,6 @@
     <t>《林业投资6张表E101+E101-1+E102+E103+E104+E105》-《林业固定资产投资完成情况》</t>
   </si>
   <si>
-    <t>在岗职工人数</t>
-  </si>
-  <si>
     <t>三、在岗职工人数-本月实际完成</t>
   </si>
   <si>
@@ -7556,6 +7553,10 @@
       </rPr>
       <t>*100%</t>
     </r>
+  </si>
+  <si>
+    <t>在岗职工人数</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8494,8 +8495,14 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8505,6 +8512,48 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8518,92 +8567,14 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8621,6 +8592,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9337,24 +9338,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>321</v>
@@ -9364,7 +9365,7 @@
         <v>252</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9377,7 +9378,7 @@
         <v>252</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9390,66 +9391,66 @@
         <v>252</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
       <c r="B7" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="170"/>
       <c r="B8" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>369</v>
@@ -9459,82 +9460,82 @@
         <v>252</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="170"/>
       <c r="B10" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="170"/>
       <c r="B11" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="170"/>
       <c r="B12" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="170"/>
       <c r="B13" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="170"/>
       <c r="B14" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="170"/>
       <c r="B15" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>297</v>
@@ -9543,11 +9544,11 @@
     <row r="16" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="170"/>
       <c r="B16" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>297</v>
@@ -9556,11 +9557,11 @@
     <row r="17" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="170"/>
       <c r="B17" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>297</v>
@@ -9568,151 +9569,151 @@
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="170" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="170"/>
       <c r="B19" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="170"/>
       <c r="B20" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>621</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="170"/>
       <c r="B21" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="170"/>
       <c r="B22" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="170"/>
       <c r="B23" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="170" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="170"/>
       <c r="B25" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="170"/>
       <c r="B26" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>444</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="170" t="s">
+        <v>631</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>297</v>
@@ -9721,11 +9722,11 @@
     <row r="28" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="170"/>
       <c r="B28" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>297</v>
@@ -9734,11 +9735,11 @@
     <row r="29" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="170"/>
       <c r="B29" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>297</v>
@@ -9747,11 +9748,11 @@
     <row r="30" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="170"/>
       <c r="B30" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>297</v>
@@ -9760,11 +9761,11 @@
     <row r="31" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="170"/>
       <c r="B31" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>297</v>
@@ -9773,13 +9774,13 @@
     <row r="32" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="170"/>
       <c r="B32" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>639</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>297</v>
@@ -9823,19 +9824,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
       <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -9860,34 +9861,34 @@
       <c r="G2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="39" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="125" t="s">
+      <c r="L2" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
     </row>
     <row r="3" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="126">
+      <c r="B3" s="128">
         <v>0.2</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="126">
+      <c r="D3" s="128">
         <v>0.3</v>
       </c>
       <c r="E3" s="40" t="s">
@@ -9899,26 +9900,26 @@
       <c r="G3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="137"/>
+      <c r="I3" s="127"/>
       <c r="J3" s="52" t="s">
         <v>93</v>
       </c>
       <c r="K3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
     </row>
     <row r="4" spans="1:15" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="127"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="40" t="s">
         <v>95</v>
       </c>
@@ -9928,28 +9929,28 @@
       <c r="G4" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="137"/>
+      <c r="I4" s="127"/>
       <c r="J4" s="52" t="s">
         <v>97</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
     </row>
     <row r="5" spans="1:15" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="142" t="s">
+      <c r="A5" s="140"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="128">
         <v>0.2</v>
       </c>
       <c r="E5" s="40" t="s">
@@ -9961,26 +9962,26 @@
       <c r="G5" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="137"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="52" t="s">
         <v>103</v>
       </c>
       <c r="K5" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
     </row>
     <row r="6" spans="1:15" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="128"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="40" t="s">
         <v>105</v>
       </c>
@@ -9990,26 +9991,26 @@
       <c r="G6" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="137"/>
+      <c r="I6" s="127"/>
       <c r="J6" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="127"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="40" t="s">
         <v>109</v>
       </c>
@@ -10019,26 +10020,26 @@
       <c r="G7" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="137"/>
+      <c r="I7" s="127"/>
       <c r="J7" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="130"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
     </row>
     <row r="8" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="142" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="128">
         <v>0.2</v>
       </c>
       <c r="E8" s="40" t="s">
@@ -10050,26 +10051,26 @@
       <c r="G8" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="137"/>
+      <c r="I8" s="127"/>
       <c r="J8" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="129" t="s">
+      <c r="K8" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
     </row>
     <row r="9" spans="1:15" ht="29.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="128"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="130"/>
       <c r="E9" s="40" t="s">
         <v>115</v>
       </c>
@@ -10079,24 +10080,24 @@
       <c r="G9" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="137"/>
+      <c r="I9" s="127"/>
       <c r="J9" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="131"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
     </row>
     <row r="10" spans="1:15" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="128"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="40" t="s">
         <v>118</v>
       </c>
@@ -10106,24 +10107,24 @@
       <c r="G10" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="137"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
     </row>
     <row r="11" spans="1:15" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="128"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="40" t="s">
         <v>120</v>
       </c>
@@ -10133,26 +10134,26 @@
       <c r="G11" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="136" t="s">
+      <c r="H11" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="137"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="129" t="s">
+      <c r="K11" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
     </row>
     <row r="12" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="127"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="40" t="s">
         <v>125</v>
       </c>
@@ -10162,25 +10163,25 @@
       <c r="G12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="136" t="s">
+      <c r="H12" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="137"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="130"/>
+      <c r="K12" s="146"/>
       <c r="L12" s="50"/>
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
     </row>
     <row r="13" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="142" t="s">
+      <c r="A13" s="140"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="126">
+      <c r="D13" s="128">
         <v>0.3</v>
       </c>
       <c r="E13" s="40" t="s">
@@ -10192,10 +10193,10 @@
       <c r="G13" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="137"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="54"/>
       <c r="K13" s="52" t="s">
         <v>132</v>
@@ -10205,10 +10206,10 @@
       <c r="N13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="128"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="40" t="s">
         <v>133</v>
       </c>
@@ -10218,12 +10219,12 @@
       <c r="G14" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="137"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="54"/>
-      <c r="K14" s="129" t="s">
+      <c r="K14" s="145" t="s">
         <v>135</v>
       </c>
       <c r="L14" s="50"/>
@@ -10231,10 +10232,10 @@
       <c r="N14" s="53"/>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="128"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="40" t="s">
         <v>136</v>
       </c>
@@ -10244,23 +10245,23 @@
       <c r="G15" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="137"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="K15" s="131"/>
+      <c r="K15" s="147"/>
       <c r="L15" s="50"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:15" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="127"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="40" t="s">
         <v>138</v>
       </c>
@@ -10270,29 +10271,29 @@
       <c r="G16" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="136" t="s">
+      <c r="H16" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="137"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="130"/>
+      <c r="K16" s="146"/>
       <c r="L16" s="50"/>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
     </row>
     <row r="17" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="126">
+      <c r="B17" s="128">
         <v>0.5</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="128">
         <v>0.6</v>
       </c>
       <c r="E17" s="40" t="s">
@@ -10304,10 +10305,10 @@
       <c r="G17" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="137"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="52" t="s">
         <v>145</v>
       </c>
@@ -10319,10 +10320,10 @@
       <c r="N17" s="53"/>
     </row>
     <row r="18" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="128"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="40" t="s">
         <v>147</v>
       </c>
@@ -10332,12 +10333,12 @@
       <c r="G18" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="136" t="s">
+      <c r="H18" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="137"/>
+      <c r="I18" s="127"/>
       <c r="J18" s="54"/>
-      <c r="K18" s="129" t="s">
+      <c r="K18" s="145" t="s">
         <v>150</v>
       </c>
       <c r="L18" s="50"/>
@@ -10345,10 +10346,10 @@
       <c r="N18" s="53"/>
     </row>
     <row r="19" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="128"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="40" t="s">
         <v>151</v>
       </c>
@@ -10358,23 +10359,23 @@
       <c r="G19" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="137"/>
+      <c r="I19" s="127"/>
       <c r="J19" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="K19" s="130"/>
+      <c r="K19" s="146"/>
       <c r="L19" s="50"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
     </row>
     <row r="20" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="128"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="40" t="s">
         <v>154</v>
       </c>
@@ -10384,14 +10385,14 @@
       <c r="G20" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="137"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="129" t="s">
+      <c r="K20" s="145" t="s">
         <v>157</v>
       </c>
       <c r="L20" s="50"/>
@@ -10399,10 +10400,10 @@
       <c r="N20" s="53"/>
     </row>
     <row r="21" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="128"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="40" t="s">
         <v>158</v>
       </c>
@@ -10412,23 +10413,23 @@
       <c r="G21" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="I21" s="137"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="131"/>
+      <c r="K21" s="147"/>
       <c r="L21" s="50"/>
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
     </row>
     <row r="22" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="40" t="s">
         <v>162</v>
       </c>
@@ -10438,25 +10439,25 @@
       <c r="G22" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="137"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="130"/>
+      <c r="K22" s="146"/>
       <c r="L22" s="50"/>
       <c r="M22" s="53"/>
       <c r="N22" s="53"/>
     </row>
     <row r="23" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="142" t="s">
+      <c r="A23" s="140"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="126">
+      <c r="D23" s="128">
         <v>0.4</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -10468,14 +10469,14 @@
       <c r="G23" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="136" t="s">
+      <c r="H23" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="I23" s="137"/>
+      <c r="I23" s="127"/>
       <c r="J23" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="K23" s="129" t="s">
+      <c r="K23" s="145" t="s">
         <v>169</v>
       </c>
       <c r="L23" s="50"/>
@@ -10483,10 +10484,10 @@
       <c r="N23" s="53"/>
     </row>
     <row r="24" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="128"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="40" t="s">
         <v>170</v>
       </c>
@@ -10496,23 +10497,23 @@
       <c r="G24" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="137"/>
+      <c r="I24" s="127"/>
       <c r="J24" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="131"/>
+      <c r="K24" s="147"/>
       <c r="L24" s="50"/>
       <c r="M24" s="53"/>
       <c r="N24" s="53"/>
     </row>
     <row r="25" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="139"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="128"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="40" t="s">
         <v>173</v>
       </c>
@@ -10522,23 +10523,23 @@
       <c r="G25" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="137"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="131"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="50"/>
       <c r="M25" s="53"/>
       <c r="N25" s="53"/>
     </row>
     <row r="26" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="139"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="128"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="40" t="s">
         <v>176</v>
       </c>
@@ -10548,23 +10549,23 @@
       <c r="G26" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="136" t="s">
+      <c r="H26" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="137"/>
+      <c r="I26" s="127"/>
       <c r="J26" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="130"/>
+      <c r="K26" s="146"/>
       <c r="L26" s="50"/>
       <c r="M26" s="53"/>
       <c r="N26" s="53"/>
     </row>
     <row r="27" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="139"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="128"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="40" t="s">
         <v>179</v>
       </c>
@@ -10574,14 +10575,14 @@
       <c r="G27" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="136" t="s">
+      <c r="H27" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="137"/>
+      <c r="I27" s="127"/>
       <c r="J27" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="K27" s="129" t="s">
+      <c r="K27" s="145" t="s">
         <v>182</v>
       </c>
       <c r="L27" s="50"/>
@@ -10589,10 +10590,10 @@
       <c r="N27" s="53"/>
     </row>
     <row r="28" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="128"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="40" t="s">
         <v>183</v>
       </c>
@@ -10602,23 +10603,23 @@
       <c r="G28" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="136" t="s">
+      <c r="H28" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="137"/>
+      <c r="I28" s="127"/>
       <c r="J28" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="K28" s="130"/>
+      <c r="K28" s="146"/>
       <c r="L28" s="50"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53"/>
     </row>
     <row r="29" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="139"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="128"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="40" t="s">
         <v>186</v>
       </c>
@@ -10637,7 +10638,7 @@
       <c r="J29" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="129" t="s">
+      <c r="K29" s="145" t="s">
         <v>190</v>
       </c>
       <c r="L29" s="50"/>
@@ -10645,10 +10646,10 @@
       <c r="N29" s="53"/>
     </row>
     <row r="30" spans="1:14" s="35" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="141"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="133"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="136"/>
       <c r="E30" s="45" t="s">
         <v>191</v>
       </c>
@@ -10667,22 +10668,22 @@
       <c r="J30" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="K30" s="132"/>
+      <c r="K30" s="148"/>
       <c r="L30" s="56"/>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
     </row>
     <row r="31" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="138" t="s">
+      <c r="A31" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="B31" s="126">
+      <c r="B31" s="128">
         <v>0.3</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="134">
+      <c r="D31" s="137">
         <v>0.3</v>
       </c>
       <c r="E31" s="49" t="s">
@@ -10694,10 +10695,10 @@
       <c r="G31" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="136" t="s">
+      <c r="H31" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="137"/>
+      <c r="I31" s="127"/>
       <c r="J31" s="52" t="s">
         <v>199</v>
       </c>
@@ -10709,10 +10710,10 @@
       <c r="N31" s="53"/>
     </row>
     <row r="32" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="135"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="49" t="s">
         <v>201</v>
       </c>
@@ -10722,10 +10723,10 @@
       <c r="G32" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="136" t="s">
+      <c r="H32" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="I32" s="137"/>
+      <c r="I32" s="127"/>
       <c r="J32" s="52" t="s">
         <v>203</v>
       </c>
@@ -10737,12 +10738,12 @@
       <c r="N32" s="53"/>
     </row>
     <row r="33" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="142" t="s">
+      <c r="A33" s="140"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="126">
+      <c r="D33" s="128">
         <v>0.3</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -10754,10 +10755,10 @@
       <c r="G33" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="126" t="s">
         <v>207</v>
       </c>
-      <c r="I33" s="137"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="52" t="s">
         <v>208</v>
       </c>
@@ -10769,10 +10770,10 @@
       <c r="N33" s="53"/>
     </row>
     <row r="34" spans="1:14" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="127"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="40" t="s">
         <v>210</v>
       </c>
@@ -10782,10 +10783,10 @@
       <c r="G34" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="136" t="s">
+      <c r="H34" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="I34" s="137"/>
+      <c r="I34" s="127"/>
       <c r="J34" s="52" t="s">
         <v>212</v>
       </c>
@@ -10797,12 +10798,12 @@
       <c r="N34" s="53"/>
     </row>
     <row r="35" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="142" t="s">
+      <c r="A35" s="140"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="126">
+      <c r="D35" s="128">
         <v>0.4</v>
       </c>
       <c r="E35" s="40" t="s">
@@ -10814,14 +10815,14 @@
       <c r="G35" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="136" t="s">
+      <c r="H35" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="I35" s="137"/>
+      <c r="I35" s="127"/>
       <c r="J35" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="129" t="s">
+      <c r="K35" s="145" t="s">
         <v>218</v>
       </c>
       <c r="L35" s="50"/>
@@ -10829,10 +10830,10 @@
       <c r="N35" s="53"/>
     </row>
     <row r="36" spans="1:14" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="139"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="128"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="40" t="s">
         <v>219</v>
       </c>
@@ -10842,23 +10843,23 @@
       <c r="G36" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="136" t="s">
+      <c r="H36" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="I36" s="137"/>
+      <c r="I36" s="127"/>
       <c r="J36" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="K36" s="130"/>
+      <c r="K36" s="146"/>
       <c r="L36" s="50"/>
       <c r="M36" s="53"/>
       <c r="N36" s="53"/>
     </row>
     <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="128"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="130"/>
       <c r="E37" s="40" t="s">
         <v>222</v>
       </c>
@@ -10868,14 +10869,14 @@
       <c r="G37" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="136" t="s">
+      <c r="H37" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="I37" s="137"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="K37" s="129" t="s">
+      <c r="K37" s="145" t="s">
         <v>224</v>
       </c>
       <c r="L37" s="50"/>
@@ -10883,10 +10884,10 @@
       <c r="N37" s="53"/>
     </row>
     <row r="38" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="128"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="40" t="s">
         <v>225</v>
       </c>
@@ -10896,23 +10897,23 @@
       <c r="G38" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="136" t="s">
+      <c r="H38" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="I38" s="137"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="K38" s="131"/>
+      <c r="K38" s="147"/>
       <c r="L38" s="50"/>
       <c r="M38" s="53"/>
       <c r="N38" s="53"/>
     </row>
     <row r="39" spans="1:14" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="40" t="s">
         <v>227</v>
       </c>
@@ -10931,7 +10932,7 @@
       <c r="J39" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="K39" s="130"/>
+      <c r="K39" s="146"/>
       <c r="L39" s="50"/>
       <c r="M39" s="53"/>
       <c r="N39" s="53"/>
@@ -10971,46 +10972,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L2:O11"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="D23:D30"/>
     <mergeCell ref="D31:D32"/>
@@ -11027,22 +11004,46 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="C23:C30"/>
-    <mergeCell ref="L2:O11"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11055,10 +11056,10 @@
   <dimension ref="A1:AV108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="P87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="P100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11083,66 +11084,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="158" t="s">
-        <v>877</v>
-      </c>
-      <c r="E1" s="156" t="s">
+      <c r="D1" s="164" t="s">
+        <v>876</v>
+      </c>
+      <c r="E1" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="F1" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="163" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149" t="s">
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
       <c r="Q1" s="82"/>
       <c r="R1" s="82"/>
-      <c r="S1" s="152" t="s">
+      <c r="S1" s="161" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="152" t="s">
-        <v>879</v>
-      </c>
-      <c r="U1" s="152" t="s">
+      <c r="T1" s="161" t="s">
+        <v>878</v>
+      </c>
+      <c r="U1" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="V1" s="152" t="s">
+      <c r="V1" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="W1" s="157" t="s">
+      <c r="W1" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="X1" s="152" t="s">
+      <c r="X1" s="161" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="82" t="s">
         <v>240</v>
       </c>
@@ -11179,21 +11180,21 @@
       <c r="R2" s="103" t="s">
         <v>251</v>
       </c>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="152"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="161"/>
     </row>
     <row r="3" spans="1:48" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="149" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="163" t="s">
         <v>254</v>
       </c>
       <c r="D3" s="107">
@@ -11225,7 +11226,7 @@
         <v>257</v>
       </c>
       <c r="T3" s="124" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="U3" s="72" t="s">
         <v>258</v>
@@ -11241,9 +11242,9 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="74" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="149"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="107">
         <v>2</v>
       </c>
@@ -11275,7 +11276,7 @@
         <v>257</v>
       </c>
       <c r="T4" s="124" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="U4" s="72" t="s">
         <v>263</v>
@@ -11309,9 +11310,9 @@
       <c r="AP4" s="18"/>
     </row>
     <row r="5" spans="1:48" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="149"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="107">
         <v>3</v>
       </c>
@@ -11368,9 +11369,9 @@
       <c r="AU5" s="18"/>
     </row>
     <row r="6" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="149"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="107">
         <v>4</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>275</v>
       </c>
       <c r="U6" s="94" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V6" s="72" t="s">
         <v>276</v>
@@ -11416,9 +11417,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="149"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="107">
         <v>5</v>
       </c>
@@ -11472,9 +11473,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="149" t="s">
+      <c r="A8" s="151"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="163" t="s">
         <v>282</v>
       </c>
       <c r="D8" s="107">
@@ -11520,9 +11521,9 @@
       <c r="X8" s="30"/>
     </row>
     <row r="9" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="149"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="107">
         <v>7</v>
       </c>
@@ -11566,9 +11567,9 @@
       <c r="X9" s="70"/>
     </row>
     <row r="10" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="149"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="163"/>
       <c r="D10" s="107">
         <v>8</v>
       </c>
@@ -11610,9 +11611,9 @@
       <c r="X10" s="30"/>
     </row>
     <row r="11" spans="1:48" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="149"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="107">
         <v>9</v>
       </c>
@@ -11662,9 +11663,9 @@
       <c r="X11" s="30"/>
     </row>
     <row r="12" spans="1:48" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="149"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="107">
         <v>10</v>
       </c>
@@ -11715,7 +11716,7 @@
     </row>
     <row r="13" spans="1:48" s="76" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="160"/>
-      <c r="B13" s="154"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="97" t="s">
         <v>303</v>
       </c>
@@ -11792,12 +11793,12 @@
       <c r="AV13" s="18"/>
     </row>
     <row r="14" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="153" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="149" t="s">
         <v>311</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D14" s="107">
         <v>12</v>
@@ -11842,10 +11843,10 @@
       <c r="X14" s="30"/>
     </row>
     <row r="15" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="153"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="97" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D15" s="107">
         <v>13</v>
@@ -11876,10 +11877,10 @@
       <c r="X15" s="30"/>
     </row>
     <row r="16" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="153"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D16" s="107">
         <v>14</v>
@@ -11926,10 +11927,10 @@
       <c r="X16" s="30"/>
     </row>
     <row r="17" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="153"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="97" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D17" s="107">
         <v>15</v>
@@ -11960,10 +11961,10 @@
       <c r="X17" s="30"/>
     </row>
     <row r="18" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
-      <c r="B18" s="153"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="97" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D18" s="107">
         <v>16</v>
@@ -12010,10 +12011,10 @@
       </c>
     </row>
     <row r="19" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
-      <c r="B19" s="153"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="97" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D19" s="107">
         <v>17</v>
@@ -12045,16 +12046,16 @@
     </row>
     <row r="20" spans="1:24" s="89" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="160"/>
-      <c r="B20" s="154"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="96" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D20" s="107">
         <v>18</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="92" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G20" s="71" t="s">
         <v>256</v>
@@ -12085,30 +12086,30 @@
         <v>256</v>
       </c>
       <c r="S20" s="90" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="T20" s="94"/>
       <c r="U20" s="94" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V20" s="94"/>
       <c r="W20" s="98" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="X20" s="92"/>
     </row>
     <row r="21" spans="1:24" s="89" customFormat="1" ht="67.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="160"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="96" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D21" s="107">
         <v>19</v>
       </c>
       <c r="E21" s="96"/>
       <c r="F21" s="92" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G21" s="71" t="s">
         <v>256</v>
@@ -12137,25 +12138,25 @@
         <v>256</v>
       </c>
       <c r="S21" s="90" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T21" s="94" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U21" s="94" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="V21" s="94"/>
       <c r="W21" s="98" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="X21" s="92"/>
     </row>
     <row r="22" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153" t="s">
-        <v>648</v>
+      <c r="A22" s="151"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149" t="s">
+        <v>647</v>
       </c>
       <c r="D22" s="107">
         <v>20</v>
@@ -12200,14 +12201,14 @@
       <c r="X22" s="30"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="107">
         <v>21</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="71" t="s">
@@ -12246,9 +12247,9 @@
       <c r="X23" s="30"/>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="107">
         <v>22</v>
       </c>
@@ -12292,20 +12293,20 @@
       <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="151" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="149" t="s">
         <v>337</v>
       </c>
       <c r="D25" s="107">
         <v>23</v>
       </c>
       <c r="E25" s="120" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>273</v>
@@ -12343,7 +12344,7 @@
         <v>297</v>
       </c>
       <c r="U25" s="33" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V25" s="33" t="s">
         <v>339</v>
@@ -12354,17 +12355,17 @@
       <c r="X25" s="30"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="107">
         <v>24</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G26" s="71" t="s">
         <v>256</v>
@@ -12397,24 +12398,24 @@
       <c r="Q26" s="82"/>
       <c r="R26" s="82"/>
       <c r="S26" s="80" t="s">
+        <v>708</v>
+      </c>
+      <c r="T26" s="81" t="s">
         <v>709</v>
       </c>
-      <c r="T26" s="81" t="s">
+      <c r="U26" s="81" t="s">
         <v>710</v>
-      </c>
-      <c r="U26" s="81" t="s">
-        <v>711</v>
       </c>
       <c r="V26" s="33"/>
       <c r="W26" s="85" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="X26" s="30"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="107">
         <v>25</v>
       </c>
@@ -12466,9 +12467,9 @@
       <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="107">
         <v>26</v>
       </c>
@@ -12520,14 +12521,14 @@
       <c r="X28" s="30"/>
     </row>
     <row r="29" spans="1:24" s="89" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="107">
         <v>27</v>
       </c>
       <c r="E29" s="86" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>91</v>
@@ -12555,17 +12556,17 @@
       <c r="O29" s="87"/>
       <c r="P29" s="87"/>
       <c r="Q29" s="87" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R29" s="87"/>
       <c r="S29" s="87" t="s">
         <v>257</v>
       </c>
       <c r="T29" s="86" t="s">
+        <v>724</v>
+      </c>
+      <c r="U29" s="87" t="s">
         <v>725</v>
-      </c>
-      <c r="U29" s="87" t="s">
-        <v>726</v>
       </c>
       <c r="V29" s="88"/>
       <c r="W29" s="86" t="s">
@@ -12574,14 +12575,14 @@
       <c r="X29" s="104"/>
     </row>
     <row r="30" spans="1:24" s="89" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="107">
         <v>28</v>
       </c>
       <c r="E30" s="86" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F30" s="87" t="s">
         <v>91</v>
@@ -12614,10 +12615,10 @@
         <v>257</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U30" s="87" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="V30" s="88"/>
       <c r="W30" s="86" t="s">
@@ -12626,9 +12627,9 @@
       <c r="X30" s="104"/>
     </row>
     <row r="31" spans="1:24" s="89" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153" t="s">
+      <c r="A31" s="151"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149" t="s">
         <v>350</v>
       </c>
       <c r="D31" s="107">
@@ -12679,7 +12680,7 @@
         <v>297</v>
       </c>
       <c r="U31" s="33" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="V31" s="81" t="s">
         <v>354</v>
@@ -12692,9 +12693,9 @@
       </c>
     </row>
     <row r="32" spans="1:24" s="89" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="107">
         <v>30</v>
       </c>
@@ -12740,10 +12741,10 @@
         <v>257</v>
       </c>
       <c r="T32" s="93" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U32" s="94" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V32" s="94"/>
       <c r="W32" s="95" t="s">
@@ -12753,10 +12754,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="89" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="160"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
       <c r="D33" s="107">
         <v>31</v>
       </c>
@@ -12796,23 +12797,23 @@
         <v>257</v>
       </c>
       <c r="T33" s="93" t="s">
+        <v>718</v>
+      </c>
+      <c r="U33" s="94" t="s">
         <v>719</v>
-      </c>
-      <c r="U33" s="94" t="s">
-        <v>720</v>
       </c>
       <c r="V33" s="94"/>
       <c r="W33" s="95" t="s">
         <v>260</v>
       </c>
       <c r="X33" s="92" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="74" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
       <c r="D34" s="107">
         <v>32</v>
       </c>
@@ -12861,7 +12862,7 @@
         <v>297</v>
       </c>
       <c r="U34" s="94" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V34" s="94"/>
       <c r="W34" s="95" t="s">
@@ -12872,9 +12873,9 @@
       </c>
     </row>
     <row r="35" spans="1:24" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
+      <c r="A35" s="151"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
       <c r="D35" s="107">
         <v>33</v>
       </c>
@@ -12920,10 +12921,10 @@
         <v>257</v>
       </c>
       <c r="T35" s="86" t="s">
+        <v>721</v>
+      </c>
+      <c r="U35" s="81" t="s">
         <v>722</v>
-      </c>
-      <c r="U35" s="81" t="s">
-        <v>723</v>
       </c>
       <c r="V35" s="81"/>
       <c r="W35" s="91" t="s">
@@ -12934,9 +12935,9 @@
       </c>
     </row>
     <row r="36" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153" t="s">
+      <c r="A36" s="151"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149" t="s">
         <v>361</v>
       </c>
       <c r="D36" s="107">
@@ -12984,9 +12985,9 @@
       <c r="X36" s="30"/>
     </row>
     <row r="37" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
+      <c r="A37" s="151"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="107">
         <v>35</v>
       </c>
@@ -13032,9 +13033,9 @@
       <c r="X37" s="30"/>
     </row>
     <row r="38" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="155"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
+      <c r="A38" s="151"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="107">
         <v>36</v>
       </c>
@@ -13080,10 +13081,10 @@
       <c r="X38" s="30"/>
     </row>
     <row r="39" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="155"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="153" t="s">
-        <v>729</v>
+      <c r="A39" s="151"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149" t="s">
+        <v>728</v>
       </c>
       <c r="D39" s="107">
         <v>37</v>
@@ -13092,7 +13093,7 @@
         <v>370</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G39" s="71" t="s">
         <v>256</v>
@@ -13107,32 +13108,32 @@
         <v>256</v>
       </c>
       <c r="M39" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N39" s="90"/>
       <c r="O39" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P39" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q39" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R39" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S39" s="80" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T39" s="86" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U39" s="81" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V39" s="81" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W39" s="91" t="s">
         <v>260</v>
@@ -13140,17 +13141,17 @@
       <c r="X39" s="105"/>
     </row>
     <row r="40" spans="1:24" s="18" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="155"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
       <c r="D40" s="107">
         <v>38</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G40" s="71" t="s">
         <v>256</v>
@@ -13159,53 +13160,53 @@
       <c r="I40" s="90"/>
       <c r="J40" s="90"/>
       <c r="K40" s="90" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L40" s="71" t="s">
         <v>256</v>
       </c>
       <c r="M40" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N40" s="90"/>
       <c r="O40" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P40" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q40" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R40" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S40" s="80" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T40" s="86" t="s">
+        <v>753</v>
+      </c>
+      <c r="U40" s="81" t="s">
         <v>754</v>
       </c>
-      <c r="U40" s="81" t="s">
+      <c r="V40" s="81" t="s">
         <v>755</v>
       </c>
-      <c r="V40" s="81" t="s">
-        <v>756</v>
-      </c>
       <c r="W40" s="91" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X40" s="105"/>
     </row>
     <row r="41" spans="1:24" s="18" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="155"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="107">
         <v>39</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F41" s="84" t="s">
         <v>91</v>
@@ -13217,49 +13218,49 @@
       <c r="I41" s="90"/>
       <c r="J41" s="90"/>
       <c r="K41" s="90" t="s">
+        <v>748</v>
+      </c>
+      <c r="L41" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" s="90" t="s">
         <v>749</v>
-      </c>
-      <c r="L41" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="M41" s="90" t="s">
-        <v>750</v>
       </c>
       <c r="N41" s="90"/>
       <c r="O41" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P41" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q41" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R41" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S41" s="80" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="U41" s="81" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V41" s="81"/>
       <c r="W41" s="91"/>
       <c r="X41" s="105"/>
     </row>
     <row r="42" spans="1:24" s="18" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="153"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="107">
         <v>40</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F42" s="84" t="s">
         <v>91</v>
@@ -13277,32 +13278,32 @@
         <v>256</v>
       </c>
       <c r="M42" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N42" s="90"/>
       <c r="O42" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P42" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q42" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R42" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S42" s="80" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U42" s="81" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V42" s="81" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W42" s="91" t="s">
         <v>260</v>
@@ -13310,8 +13311,8 @@
       <c r="X42" s="105"/>
     </row>
     <row r="43" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="155"/>
-      <c r="B43" s="153" t="s">
+      <c r="A43" s="151"/>
+      <c r="B43" s="149" t="s">
         <v>371</v>
       </c>
       <c r="C43" s="121" t="s">
@@ -13356,8 +13357,8 @@
       <c r="X43" s="30"/>
     </row>
     <row r="44" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="155"/>
-      <c r="B44" s="153"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="149"/>
       <c r="C44" s="121" t="s">
         <v>375</v>
       </c>
@@ -13400,8 +13401,8 @@
       <c r="X44" s="30"/>
     </row>
     <row r="45" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155"/>
-      <c r="B45" s="153"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="149"/>
       <c r="C45" s="121" t="s">
         <v>378</v>
       </c>
@@ -13444,8 +13445,8 @@
       <c r="X45" s="30"/>
     </row>
     <row r="46" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="155"/>
-      <c r="B46" s="153" t="s">
+      <c r="A46" s="151"/>
+      <c r="B46" s="149" t="s">
         <v>380</v>
       </c>
       <c r="C46" s="121" t="s">
@@ -13490,8 +13491,8 @@
       <c r="X46" s="30"/>
     </row>
     <row r="47" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155"/>
-      <c r="B47" s="153"/>
+      <c r="A47" s="151"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="120" t="s">
         <v>383</v>
       </c>
@@ -13534,8 +13535,8 @@
       <c r="X47" s="30"/>
     </row>
     <row r="48" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="155"/>
-      <c r="B48" s="153"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="149"/>
       <c r="C48" s="120" t="s">
         <v>385</v>
       </c>
@@ -13578,8 +13579,8 @@
       <c r="X48" s="30"/>
     </row>
     <row r="49" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="155"/>
-      <c r="B49" s="153" t="s">
+      <c r="A49" s="151"/>
+      <c r="B49" s="149" t="s">
         <v>386</v>
       </c>
       <c r="C49" s="122" t="s">
@@ -13624,10 +13625,10 @@
       <c r="X49" s="30"/>
     </row>
     <row r="50" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="155"/>
-      <c r="B50" s="153"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="149"/>
       <c r="C50" s="29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D50" s="107">
         <v>48</v>
@@ -13656,20 +13657,20 @@
         <v>296</v>
       </c>
       <c r="T50" s="111" t="s">
+        <v>850</v>
+      </c>
+      <c r="U50" s="111" t="s">
+        <v>852</v>
+      </c>
+      <c r="V50" s="111" t="s">
         <v>851</v>
-      </c>
-      <c r="U50" s="111" t="s">
-        <v>853</v>
-      </c>
-      <c r="V50" s="111" t="s">
-        <v>852</v>
       </c>
       <c r="W50" s="114"/>
       <c r="X50" s="109"/>
     </row>
     <row r="51" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="155"/>
-      <c r="B51" s="153"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="149"/>
       <c r="C51" s="120" t="s">
         <v>389</v>
       </c>
@@ -13712,8 +13713,8 @@
       <c r="X51" s="30"/>
     </row>
     <row r="52" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="155"/>
-      <c r="B52" s="153"/>
+      <c r="A52" s="151"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="122" t="s">
         <v>390</v>
       </c>
@@ -13756,10 +13757,10 @@
       <c r="X52" s="30"/>
     </row>
     <row r="53" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="155"/>
-      <c r="B53" s="153"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D53" s="107">
         <v>51</v>
@@ -13794,14 +13795,14 @@
         <v>373</v>
       </c>
       <c r="V53" s="111" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="W53" s="114"/>
       <c r="X53" s="109"/>
     </row>
     <row r="54" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="155"/>
-      <c r="B54" s="153"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="120" t="s">
         <v>392</v>
       </c>
@@ -13844,8 +13845,8 @@
       <c r="X54" s="30"/>
     </row>
     <row r="55" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="155"/>
-      <c r="B55" s="161" t="s">
+      <c r="A55" s="151"/>
+      <c r="B55" s="150" t="s">
         <v>393</v>
       </c>
       <c r="C55" s="29" t="s">
@@ -13890,10 +13891,10 @@
       <c r="X55" s="30"/>
     </row>
     <row r="56" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="155"/>
-      <c r="B56" s="161"/>
+      <c r="A56" s="151"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="108" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D56" s="107">
         <v>54</v>
@@ -13928,14 +13929,14 @@
         <v>373</v>
       </c>
       <c r="V56" s="111" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="W56" s="114"/>
       <c r="X56" s="109"/>
     </row>
     <row r="57" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="155"/>
-      <c r="B57" s="161"/>
+      <c r="A57" s="151"/>
+      <c r="B57" s="150"/>
       <c r="C57" s="29" t="s">
         <v>396</v>
       </c>
@@ -13978,8 +13979,8 @@
       <c r="X57" s="30"/>
     </row>
     <row r="58" spans="1:28" s="115" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="155"/>
-      <c r="B58" s="161" t="s">
+      <c r="A58" s="151"/>
+      <c r="B58" s="150" t="s">
         <v>397</v>
       </c>
       <c r="C58" s="120" t="s">
@@ -14024,10 +14025,10 @@
       <c r="X58" s="30"/>
     </row>
     <row r="59" spans="1:28" s="115" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="155"/>
-      <c r="B59" s="161"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="150"/>
       <c r="C59" s="108" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D59" s="107">
         <v>57</v>
@@ -14053,10 +14054,10 @@
       <c r="Q59" s="110"/>
       <c r="R59" s="110"/>
       <c r="S59" s="110" t="s">
+        <v>858</v>
+      </c>
+      <c r="T59" s="117" t="s">
         <v>859</v>
-      </c>
-      <c r="T59" s="117" t="s">
-        <v>860</v>
       </c>
       <c r="U59" s="111" t="s">
         <v>399</v>
@@ -14068,10 +14069,10 @@
       <c r="X59" s="109"/>
     </row>
     <row r="60" spans="1:28" s="115" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="155"/>
-      <c r="B60" s="161"/>
+      <c r="A60" s="151"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="120" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D60" s="107">
         <v>58</v>
@@ -14097,10 +14098,10 @@
       <c r="Q60" s="110"/>
       <c r="R60" s="110"/>
       <c r="S60" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="T60" s="117" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U60" s="111" t="s">
         <v>399</v>
@@ -14112,8 +14113,8 @@
       <c r="X60" s="109"/>
     </row>
     <row r="61" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="155"/>
-      <c r="B61" s="161"/>
+      <c r="A61" s="151"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="120" t="s">
         <v>401</v>
       </c>
@@ -14156,10 +14157,10 @@
       <c r="X61" s="30"/>
     </row>
     <row r="62" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="155"/>
-      <c r="B62" s="161"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D62" s="107">
         <v>60</v>
@@ -14194,14 +14195,14 @@
         <v>373</v>
       </c>
       <c r="V62" s="111" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W62" s="114"/>
       <c r="X62" s="109"/>
     </row>
     <row r="63" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="155"/>
-      <c r="B63" s="161"/>
+      <c r="A63" s="151"/>
+      <c r="B63" s="150"/>
       <c r="C63" s="108" t="s">
         <v>403</v>
       </c>
@@ -14247,8 +14248,8 @@
       <c r="AB63" s="116"/>
     </row>
     <row r="64" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="155"/>
-      <c r="B64" s="162" t="s">
+      <c r="A64" s="151"/>
+      <c r="B64" s="152" t="s">
         <v>404</v>
       </c>
       <c r="C64" s="120" t="s">
@@ -14293,10 +14294,10 @@
       <c r="X64" s="30"/>
     </row>
     <row r="65" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="155"/>
-      <c r="B65" s="163"/>
+      <c r="A65" s="151"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D65" s="107">
         <v>63</v>
@@ -14331,14 +14332,14 @@
         <v>373</v>
       </c>
       <c r="V65" s="111" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="W65" s="114"/>
       <c r="X65" s="109"/>
     </row>
     <row r="66" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="155"/>
-      <c r="B66" s="163"/>
+      <c r="A66" s="151"/>
+      <c r="B66" s="153"/>
       <c r="C66" s="123" t="s">
         <v>407</v>
       </c>
@@ -14381,8 +14382,8 @@
       <c r="X66" s="30"/>
     </row>
     <row r="67" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="155"/>
-      <c r="B67" s="163"/>
+      <c r="A67" s="151"/>
+      <c r="B67" s="153"/>
       <c r="C67" s="120" t="s">
         <v>408</v>
       </c>
@@ -14425,10 +14426,10 @@
       <c r="X67" s="30"/>
     </row>
     <row r="68" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="155"/>
-      <c r="B68" s="163"/>
+      <c r="A68" s="151"/>
+      <c r="B68" s="153"/>
       <c r="C68" s="29" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D68" s="107">
         <v>66</v>
@@ -14469,17 +14470,17 @@
       <c r="X68" s="109"/>
     </row>
     <row r="69" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="155"/>
-      <c r="B69" s="164"/>
+      <c r="A69" s="151"/>
+      <c r="B69" s="154"/>
       <c r="C69" s="120" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D69" s="107">
         <v>67</v>
       </c>
       <c r="E69" s="108"/>
       <c r="F69" s="109" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G69" s="113" t="s">
         <v>256</v>
@@ -14498,10 +14499,10 @@
       <c r="Q69" s="110"/>
       <c r="R69" s="110"/>
       <c r="S69" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="T69" s="111" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U69" s="111" t="s">
         <v>399</v>
@@ -14513,8 +14514,8 @@
       <c r="X69" s="109"/>
     </row>
     <row r="70" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="155"/>
-      <c r="B70" s="161" t="s">
+      <c r="A70" s="151"/>
+      <c r="B70" s="150" t="s">
         <v>411</v>
       </c>
       <c r="C70" s="108" t="s">
@@ -14559,10 +14560,10 @@
       <c r="X70" s="30"/>
     </row>
     <row r="71" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="155"/>
-      <c r="B71" s="161"/>
+      <c r="A71" s="151"/>
+      <c r="B71" s="150"/>
       <c r="C71" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D71" s="107">
         <v>69</v>
@@ -14597,14 +14598,14 @@
         <v>373</v>
       </c>
       <c r="V71" s="111" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="W71" s="114"/>
       <c r="X71" s="109"/>
     </row>
     <row r="72" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="155"/>
-      <c r="B72" s="161"/>
+      <c r="A72" s="151"/>
+      <c r="B72" s="150"/>
       <c r="C72" s="29" t="s">
         <v>414</v>
       </c>
@@ -14647,9 +14648,9 @@
       <c r="X72" s="30"/>
     </row>
     <row r="73" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="155"/>
-      <c r="B73" s="165" t="s">
-        <v>876</v>
+      <c r="A73" s="151"/>
+      <c r="B73" s="155" t="s">
+        <v>875</v>
       </c>
       <c r="C73" s="108" t="s">
         <v>415</v>
@@ -14693,10 +14694,10 @@
       <c r="X73" s="30"/>
     </row>
     <row r="74" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="155"/>
-      <c r="B74" s="166"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="156"/>
       <c r="C74" s="29" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D74" s="107">
         <v>72</v>
@@ -14731,16 +14732,16 @@
         <v>373</v>
       </c>
       <c r="V74" s="111" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="W74" s="114"/>
       <c r="X74" s="109"/>
     </row>
     <row r="75" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="155"/>
-      <c r="B75" s="167"/>
+      <c r="A75" s="151"/>
+      <c r="B75" s="157"/>
       <c r="C75" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D75" s="107">
         <v>73</v>
@@ -14766,23 +14767,23 @@
       <c r="Q75" s="110"/>
       <c r="R75" s="110"/>
       <c r="S75" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="T75" s="111" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U75" s="111" t="s">
         <v>373</v>
       </c>
       <c r="V75" s="111" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="W75" s="114"/>
       <c r="X75" s="109"/>
     </row>
     <row r="76" spans="1:28" s="115" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="155"/>
-      <c r="B76" s="153" t="s">
+      <c r="A76" s="151"/>
+      <c r="B76" s="149" t="s">
         <v>417</v>
       </c>
       <c r="C76" s="29" t="s">
@@ -14835,14 +14836,14 @@
       </c>
     </row>
     <row r="77" spans="1:28" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="155"/>
-      <c r="B77" s="153"/>
+      <c r="A77" s="151"/>
+      <c r="B77" s="149"/>
       <c r="C77" s="108"/>
       <c r="D77" s="107">
         <v>75</v>
       </c>
       <c r="E77" s="97" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>273</v>
@@ -14866,16 +14867,16 @@
       <c r="Q77" s="82"/>
       <c r="R77" s="82"/>
       <c r="S77" s="80" t="s">
+        <v>674</v>
+      </c>
+      <c r="T77" s="81" t="s">
         <v>675</v>
-      </c>
-      <c r="T77" s="81" t="s">
-        <v>676</v>
       </c>
       <c r="U77" s="33" t="s">
         <v>423</v>
       </c>
       <c r="V77" s="81" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W77" s="34" t="s">
         <v>260</v>
@@ -14885,8 +14886,8 @@
       </c>
     </row>
     <row r="78" spans="1:28" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="155"/>
-      <c r="B78" s="153"/>
+      <c r="A78" s="151"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="29"/>
       <c r="D78" s="107">
         <v>76</v>
@@ -14938,8 +14939,8 @@
       <c r="AB78" s="74"/>
     </row>
     <row r="79" spans="1:28" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="155"/>
-      <c r="B79" s="153"/>
+      <c r="A79" s="151"/>
+      <c r="B79" s="149"/>
       <c r="C79" s="29"/>
       <c r="D79" s="107">
         <v>77</v>
@@ -14991,8 +14992,8 @@
       <c r="AB79" s="74"/>
     </row>
     <row r="80" spans="1:28" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="155"/>
-      <c r="B80" s="153"/>
+      <c r="A80" s="151"/>
+      <c r="B80" s="149"/>
       <c r="C80" s="108"/>
       <c r="D80" s="107">
         <v>78</v>
@@ -15042,8 +15043,8 @@
       <c r="AB80" s="74"/>
     </row>
     <row r="81" spans="1:46" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="155"/>
-      <c r="B81" s="153"/>
+      <c r="A81" s="151"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="29"/>
       <c r="D81" s="107">
         <v>79</v>
@@ -15093,8 +15094,8 @@
       <c r="AB81" s="74"/>
     </row>
     <row r="82" spans="1:46" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="155"/>
-      <c r="B82" s="153"/>
+      <c r="A82" s="151"/>
+      <c r="B82" s="149"/>
       <c r="C82" s="29"/>
       <c r="D82" s="107">
         <v>80</v>
@@ -15144,9 +15145,9 @@
       <c r="AB82" s="74"/>
     </row>
     <row r="83" spans="1:46" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="155"/>
-      <c r="B83" s="153"/>
-      <c r="C83" s="153" t="s">
+      <c r="A83" s="151"/>
+      <c r="B83" s="149"/>
+      <c r="C83" s="149" t="s">
         <v>440</v>
       </c>
       <c r="D83" s="107">
@@ -15183,10 +15184,10 @@
         <v>297</v>
       </c>
       <c r="U83" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="V83" s="33" t="s">
         <v>677</v>
-      </c>
-      <c r="V83" s="33" t="s">
-        <v>678</v>
       </c>
       <c r="W83" s="34" t="s">
         <v>260</v>
@@ -15199,14 +15200,14 @@
       <c r="AB83" s="74"/>
     </row>
     <row r="84" spans="1:46" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="155"/>
-      <c r="B84" s="153"/>
-      <c r="C84" s="153"/>
+      <c r="A84" s="151"/>
+      <c r="B84" s="149"/>
+      <c r="C84" s="149"/>
       <c r="D84" s="107">
         <v>82</v>
       </c>
       <c r="E84" s="97" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F84" s="30" t="s">
         <v>273</v>
@@ -15239,7 +15240,7 @@
         <v>442</v>
       </c>
       <c r="V84" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W84" s="34" t="s">
         <v>260</v>
@@ -15252,12 +15253,12 @@
       <c r="AB84" s="76"/>
     </row>
     <row r="85" spans="1:46" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="155"/>
-      <c r="B85" s="155" t="s">
-        <v>680</v>
+      <c r="A85" s="151"/>
+      <c r="B85" s="151" t="s">
+        <v>679</v>
       </c>
       <c r="C85" s="120" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D85" s="107">
         <v>83</v>
@@ -15287,10 +15288,10 @@
       </c>
       <c r="T85" s="72"/>
       <c r="U85" s="72" t="s">
+        <v>680</v>
+      </c>
+      <c r="V85" s="72" t="s">
         <v>681</v>
-      </c>
-      <c r="V85" s="72" t="s">
-        <v>682</v>
       </c>
       <c r="W85" s="73" t="s">
         <v>260</v>
@@ -15320,10 +15321,10 @@
       <c r="AT85" s="74"/>
     </row>
     <row r="86" spans="1:46" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="155"/>
-      <c r="B86" s="155"/>
+      <c r="A86" s="151"/>
+      <c r="B86" s="151"/>
       <c r="C86" s="120" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D86" s="107">
         <v>84</v>
@@ -15353,10 +15354,10 @@
       </c>
       <c r="T86" s="72"/>
       <c r="U86" s="72" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V86" s="72" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="W86" s="73" t="s">
         <v>260</v>
@@ -15386,10 +15387,10 @@
       <c r="AT86" s="74"/>
     </row>
     <row r="87" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="155"/>
-      <c r="B87" s="155"/>
+      <c r="A87" s="151"/>
+      <c r="B87" s="151"/>
       <c r="C87" s="120" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D87" s="107">
         <v>85</v>
@@ -15418,13 +15419,13 @@
         <v>274</v>
       </c>
       <c r="T87" s="72" t="s">
+        <v>683</v>
+      </c>
+      <c r="U87" s="72" t="s">
+        <v>680</v>
+      </c>
+      <c r="V87" s="72" t="s">
         <v>684</v>
-      </c>
-      <c r="U87" s="72" t="s">
-        <v>681</v>
-      </c>
-      <c r="V87" s="72" t="s">
-        <v>685</v>
       </c>
       <c r="W87" s="73" t="s">
         <v>260</v>
@@ -15454,10 +15455,10 @@
       <c r="AT87" s="74"/>
     </row>
     <row r="88" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="155"/>
-      <c r="B88" s="155"/>
+      <c r="A88" s="151"/>
+      <c r="B88" s="151"/>
       <c r="C88" s="120" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D88" s="107">
         <v>86</v>
@@ -15486,13 +15487,13 @@
         <v>274</v>
       </c>
       <c r="T88" s="72" t="s">
+        <v>685</v>
+      </c>
+      <c r="U88" s="72" t="s">
+        <v>680</v>
+      </c>
+      <c r="V88" s="72" t="s">
         <v>686</v>
-      </c>
-      <c r="U88" s="72" t="s">
-        <v>681</v>
-      </c>
-      <c r="V88" s="72" t="s">
-        <v>687</v>
       </c>
       <c r="W88" s="73" t="s">
         <v>260</v>
@@ -15519,10 +15520,10 @@
       <c r="AT88" s="74"/>
     </row>
     <row r="89" spans="1:46" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="155"/>
-      <c r="B89" s="155"/>
+      <c r="A89" s="151"/>
+      <c r="B89" s="151"/>
       <c r="C89" s="120" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D89" s="107">
         <v>87</v>
@@ -15552,10 +15553,10 @@
       </c>
       <c r="T89" s="72"/>
       <c r="U89" s="72" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V89" s="72" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W89" s="73" t="s">
         <v>260</v>
@@ -15582,10 +15583,10 @@
       <c r="AT89" s="74"/>
     </row>
     <row r="90" spans="1:46" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="155"/>
-      <c r="B90" s="155"/>
+      <c r="A90" s="151"/>
+      <c r="B90" s="151"/>
       <c r="C90" s="120" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D90" s="107">
         <v>88</v>
@@ -15615,10 +15616,10 @@
       </c>
       <c r="T90" s="72"/>
       <c r="U90" s="72" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V90" s="72" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W90" s="73" t="s">
         <v>260</v>
@@ -15647,17 +15648,17 @@
     <row r="91" spans="1:46" s="89" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="160"/>
       <c r="B91" s="96" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C91" s="96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D91" s="107">
         <v>89</v>
       </c>
       <c r="E91" s="96"/>
       <c r="F91" s="92" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G91" s="71" t="s">
         <v>256</v>
@@ -15679,26 +15680,26 @@
         <v>257</v>
       </c>
       <c r="T91" s="94" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="U91" s="94" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V91" s="94"/>
       <c r="W91" s="98" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X91" s="92"/>
     </row>
     <row r="92" spans="1:46" s="18" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="155" t="s">
+      <c r="A92" s="151" t="s">
         <v>444</v>
       </c>
-      <c r="B92" s="153" t="s">
+      <c r="B92" s="149" t="s">
         <v>445</v>
       </c>
       <c r="C92" s="97" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D92" s="107">
         <v>90</v>
@@ -15745,10 +15746,10 @@
       </c>
     </row>
     <row r="93" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="155"/>
-      <c r="B93" s="153"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="149"/>
       <c r="C93" s="97" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D93" s="107">
         <v>91</v>
@@ -15785,7 +15786,7 @@
         <v>298</v>
       </c>
       <c r="V93" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="W93" s="34"/>
       <c r="X93" s="30"/>
@@ -15794,10 +15795,10 @@
       <c r="AB93" s="76"/>
     </row>
     <row r="94" spans="1:46" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="155"/>
-      <c r="B94" s="153"/>
+      <c r="A94" s="151"/>
+      <c r="B94" s="149"/>
       <c r="C94" s="97" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D94" s="107">
         <v>92</v>
@@ -15829,10 +15830,10 @@
         <v>451</v>
       </c>
       <c r="U94" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="V94" s="33" t="s">
         <v>695</v>
-      </c>
-      <c r="V94" s="33" t="s">
-        <v>696</v>
       </c>
       <c r="W94" s="34"/>
       <c r="X94" s="30"/>
@@ -15841,10 +15842,10 @@
       <c r="AB94" s="76"/>
     </row>
     <row r="95" spans="1:46" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="155"/>
-      <c r="B95" s="153"/>
+      <c r="A95" s="151"/>
+      <c r="B95" s="149"/>
       <c r="C95" s="97" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D95" s="107">
         <v>93</v>
@@ -15876,10 +15877,10 @@
         <v>297</v>
       </c>
       <c r="U95" s="33" t="s">
+        <v>696</v>
+      </c>
+      <c r="V95" s="33" t="s">
         <v>697</v>
-      </c>
-      <c r="V95" s="33" t="s">
-        <v>698</v>
       </c>
       <c r="W95" s="34" t="s">
         <v>300</v>
@@ -15889,10 +15890,10 @@
       </c>
     </row>
     <row r="96" spans="1:46" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="155"/>
-      <c r="B96" s="153"/>
+      <c r="A96" s="151"/>
+      <c r="B96" s="149"/>
       <c r="C96" s="97" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D96" s="107">
         <v>94</v>
@@ -15927,7 +15928,7 @@
         <v>452</v>
       </c>
       <c r="V96" s="33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="W96" s="34" t="s">
         <v>300</v>
@@ -15937,16 +15938,16 @@
       </c>
     </row>
     <row r="97" spans="1:28" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="155"/>
-      <c r="B97" s="153"/>
-      <c r="C97" s="155" t="s">
-        <v>665</v>
+      <c r="A97" s="151"/>
+      <c r="B97" s="149"/>
+      <c r="C97" s="151" t="s">
+        <v>664</v>
       </c>
       <c r="D97" s="107">
         <v>95</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F97" s="30" t="s">
         <v>376</v>
@@ -15971,13 +15972,13 @@
         <v>257</v>
       </c>
       <c r="T97" s="33" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U97" s="33" t="s">
         <v>452</v>
       </c>
       <c r="V97" s="33" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W97" s="34" t="s">
         <v>300</v>
@@ -15985,14 +15986,14 @@
       <c r="X97" s="30"/>
     </row>
     <row r="98" spans="1:28" s="18" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="155"/>
-      <c r="B98" s="153"/>
-      <c r="C98" s="155"/>
+      <c r="A98" s="151"/>
+      <c r="B98" s="149"/>
+      <c r="C98" s="151"/>
       <c r="D98" s="107">
         <v>96</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F98" s="30" t="s">
         <v>376</v>
@@ -16020,10 +16021,10 @@
         <v>297</v>
       </c>
       <c r="U98" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="V98" s="33" t="s">
         <v>702</v>
-      </c>
-      <c r="V98" s="33" t="s">
-        <v>703</v>
       </c>
       <c r="W98" s="34" t="s">
         <v>300</v>
@@ -16033,10 +16034,10 @@
       </c>
     </row>
     <row r="99" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="155"/>
-      <c r="B99" s="153"/>
+      <c r="A99" s="151"/>
+      <c r="B99" s="149"/>
       <c r="C99" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D99" s="107">
         <v>97</v>
@@ -16068,10 +16069,10 @@
         <v>297</v>
       </c>
       <c r="U99" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="V99" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W99" s="34" t="s">
         <v>300</v>
@@ -16084,10 +16085,10 @@
       <c r="AB99" s="76"/>
     </row>
     <row r="100" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="155"/>
-      <c r="B100" s="153"/>
+      <c r="A100" s="151"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="97" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D100" s="107">
         <v>98</v>
@@ -16122,7 +16123,7 @@
         <v>455</v>
       </c>
       <c r="V100" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W100" s="34" t="s">
         <v>300</v>
@@ -16135,12 +16136,12 @@
       <c r="AB100" s="76"/>
     </row>
     <row r="101" spans="1:28" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="155"/>
-      <c r="B101" s="151" t="s">
-        <v>693</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>456</v>
+      <c r="A101" s="151"/>
+      <c r="B101" s="167" t="s">
+        <v>692</v>
+      </c>
+      <c r="C101" s="120" t="s">
+        <v>881</v>
       </c>
       <c r="D101" s="107">
         <v>99</v>
@@ -16177,7 +16178,7 @@
         <v>298</v>
       </c>
       <c r="V101" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W101" s="34" t="s">
         <v>300</v>
@@ -16188,17 +16189,17 @@
       <c r="AB101" s="76"/>
     </row>
     <row r="102" spans="1:28" s="18" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="155"/>
-      <c r="B102" s="151"/>
+      <c r="A102" s="151"/>
+      <c r="B102" s="167"/>
       <c r="C102" s="29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D102" s="107">
         <v>100</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G102" s="71" t="s">
         <v>256</v>
@@ -16222,13 +16223,13 @@
         <v>268</v>
       </c>
       <c r="T102" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="U102" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="U102" s="33" t="s">
+      <c r="V102" s="33" t="s">
         <v>461</v>
-      </c>
-      <c r="V102" s="33" t="s">
-        <v>462</v>
       </c>
       <c r="W102" s="34" t="s">
         <v>300</v>
@@ -16239,17 +16240,17 @@
       <c r="AB102" s="76"/>
     </row>
     <row r="103" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="155"/>
-      <c r="B103" s="151"/>
+      <c r="A103" s="151"/>
+      <c r="B103" s="167"/>
       <c r="C103" s="83" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D103" s="107">
         <v>101</v>
       </c>
       <c r="E103" s="29"/>
       <c r="F103" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G103" s="71" t="s">
         <v>256</v>
@@ -16271,31 +16272,31 @@
         <v>268</v>
       </c>
       <c r="T103" s="81" t="s">
+        <v>763</v>
+      </c>
+      <c r="U103" s="81" t="s">
         <v>764</v>
       </c>
-      <c r="U103" s="81" t="s">
+      <c r="V103" s="81" t="s">
         <v>765</v>
-      </c>
-      <c r="V103" s="81" t="s">
-        <v>766</v>
       </c>
       <c r="W103" s="34"/>
       <c r="X103" s="30"/>
     </row>
     <row r="104" spans="1:28" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="155"/>
-      <c r="B104" s="153" t="s">
-        <v>671</v>
+      <c r="A104" s="151"/>
+      <c r="B104" s="149" t="s">
+        <v>670</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D104" s="107">
         <v>102</v>
       </c>
       <c r="E104" s="29"/>
       <c r="F104" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G104" s="71" t="s">
         <v>256</v>
@@ -16320,21 +16321,21 @@
         <v>297</v>
       </c>
       <c r="U104" s="81" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="V104" s="81"/>
       <c r="W104" s="34" t="s">
         <v>260</v>
       </c>
       <c r="X104" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:28" s="18" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="155"/>
-      <c r="B105" s="153"/>
+      <c r="A105" s="151"/>
+      <c r="B105" s="149"/>
       <c r="C105" s="29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D105" s="107">
         <v>103</v>
@@ -16368,23 +16369,23 @@
         <v>297</v>
       </c>
       <c r="U105" s="81" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="V105" s="81"/>
       <c r="W105" s="85" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X105" s="30"/>
     </row>
     <row r="106" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="150" t="s">
-        <v>692</v>
-      </c>
-      <c r="B106" s="149" t="s">
-        <v>470</v>
+      <c r="A106" s="166" t="s">
+        <v>691</v>
+      </c>
+      <c r="B106" s="163" t="s">
+        <v>469</v>
       </c>
       <c r="C106" s="97" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D106" s="107">
         <v>104</v>
@@ -16413,36 +16414,36 @@
         <v>274</v>
       </c>
       <c r="T106" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U106" s="81" t="s">
+        <v>769</v>
+      </c>
+      <c r="V106" s="81" t="s">
         <v>770</v>
-      </c>
-      <c r="V106" s="81" t="s">
-        <v>771</v>
       </c>
       <c r="W106" s="34" t="s">
         <v>260</v>
       </c>
       <c r="X106" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:28" s="18" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="150"/>
-      <c r="B107" s="149"/>
+      <c r="A107" s="166"/>
+      <c r="B107" s="163"/>
       <c r="C107" s="96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D107" s="107">
         <v>105</v>
       </c>
       <c r="E107" s="29"/>
       <c r="F107" s="84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G107" s="90" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H107" s="82"/>
       <c r="I107" s="82"/>
@@ -16458,17 +16459,17 @@
       <c r="Q107" s="82"/>
       <c r="R107" s="82"/>
       <c r="S107" s="80" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T107" s="81" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U107" s="81" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V107" s="33"/>
       <c r="W107" s="85" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="X107" s="30"/>
     </row>
@@ -16478,35 +16479,6 @@
   </sheetData>
   <autoFilter ref="A2:AV107"/>
   <mergeCells count="45">
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B42"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="A25:A91"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="B101:B103"/>
@@ -16523,6 +16495,35 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="A92:A105"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="A25:A91"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B73:B75"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <dataValidations count="1">
@@ -16548,10 +16549,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>473</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16559,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16567,7 +16568,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16575,7 +16576,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16583,7 +16584,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16591,7 +16592,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16599,7 +16600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16607,7 +16608,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16615,7 +16616,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16623,7 +16624,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -16631,7 +16632,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16639,7 +16640,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16647,7 +16648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -16672,190 +16673,190 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="100" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1" s="100" t="s">
         <v>776</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="C1" s="100" t="s">
         <v>777</v>
-      </c>
-      <c r="C1" s="100" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="169" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="168" t="s">
         <v>779</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="C2" s="101" t="s">
         <v>780</v>
-      </c>
-      <c r="C2" s="101" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="169"/>
       <c r="B3" s="168"/>
       <c r="C3" s="101" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="169"/>
       <c r="B4" s="168" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C4" s="168"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="169"/>
       <c r="B5" s="168" t="s">
+        <v>783</v>
+      </c>
+      <c r="C5" s="101" t="s">
         <v>784</v>
-      </c>
-      <c r="C5" s="101" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
       <c r="B6" s="168"/>
       <c r="C6" s="101" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="169"/>
       <c r="B7" s="168" t="s">
+        <v>786</v>
+      </c>
+      <c r="C7" s="101" t="s">
         <v>787</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="169"/>
       <c r="B8" s="168"/>
       <c r="C8" s="101" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="169"/>
       <c r="B9" s="168" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C9" s="168"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="169"/>
       <c r="B10" s="168" t="s">
+        <v>790</v>
+      </c>
+      <c r="C10" s="101" t="s">
         <v>791</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="169"/>
       <c r="B11" s="168"/>
       <c r="C11" s="101" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="169"/>
       <c r="B12" s="168"/>
       <c r="C12" s="101" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="169"/>
       <c r="B13" s="168" t="s">
+        <v>794</v>
+      </c>
+      <c r="C13" s="101" t="s">
         <v>795</v>
-      </c>
-      <c r="C13" s="101" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="169"/>
       <c r="B14" s="168"/>
       <c r="C14" s="101" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="169"/>
       <c r="B15" s="168"/>
       <c r="C15" s="101" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="169"/>
       <c r="B16" s="168"/>
       <c r="C16" s="101" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
+        <v>799</v>
+      </c>
+      <c r="B17" s="168" t="s">
         <v>800</v>
-      </c>
-      <c r="B17" s="168" t="s">
-        <v>801</v>
       </c>
       <c r="C17" s="168"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="169"/>
       <c r="B18" s="168" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C18" s="168"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="169"/>
       <c r="B19" s="168" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C19" s="168"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="169"/>
       <c r="B20" s="168" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C20" s="168"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="169"/>
       <c r="B21" s="168" t="s">
+        <v>803</v>
+      </c>
+      <c r="C21" s="101" t="s">
         <v>804</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="169"/>
       <c r="B22" s="168"/>
       <c r="C22" s="101" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="169"/>
       <c r="B23" s="168"/>
       <c r="C23" s="101" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="169"/>
       <c r="B24" s="168"/>
       <c r="C24" s="101" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -16897,188 +16898,188 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="100" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1" s="100" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="C1" s="100" t="s">
         <v>811</v>
-      </c>
-      <c r="C1" s="100" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="169" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2" s="169" t="s">
         <v>813</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="C2" s="101" t="s">
         <v>814</v>
-      </c>
-      <c r="C2" s="101" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="169"/>
       <c r="B3" s="169"/>
       <c r="C3" s="101" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="169"/>
       <c r="B4" s="169"/>
       <c r="C4" s="101" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="169"/>
       <c r="B5" s="169"/>
       <c r="C5" s="101" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
       <c r="B6" s="169"/>
       <c r="C6" s="101" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="169"/>
       <c r="B7" s="169"/>
       <c r="C7" s="101" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="169"/>
       <c r="B8" s="169"/>
       <c r="C8" s="101" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="169"/>
       <c r="B9" s="169" t="s">
+        <v>821</v>
+      </c>
+      <c r="C9" s="101" t="s">
         <v>822</v>
-      </c>
-      <c r="C9" s="101" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="169"/>
       <c r="B10" s="169"/>
       <c r="C10" s="101" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="169"/>
       <c r="B11" s="169"/>
       <c r="C11" s="101" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="169"/>
       <c r="B12" s="169"/>
       <c r="C12" s="101" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="169"/>
       <c r="B13" s="169"/>
       <c r="C13" s="101" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="169"/>
       <c r="B14" s="169"/>
       <c r="C14" s="101" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="169"/>
       <c r="B15" s="169"/>
       <c r="C15" s="101" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
+        <v>829</v>
+      </c>
+      <c r="B16" s="169" t="s">
         <v>830</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="C16" s="101" t="s">
         <v>831</v>
-      </c>
-      <c r="C16" s="101" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="169"/>
       <c r="B17" s="169"/>
       <c r="C17" s="101" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="169"/>
       <c r="B18" s="169"/>
       <c r="C18" s="101" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="169"/>
       <c r="B19" s="100" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="169"/>
       <c r="B20" s="169" t="s">
+        <v>835</v>
+      </c>
+      <c r="C20" s="101" t="s">
         <v>836</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="169"/>
       <c r="B21" s="169"/>
       <c r="C21" s="101" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="169"/>
       <c r="B22" s="169"/>
       <c r="C22" s="101" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="169"/>
       <c r="B23" s="169"/>
       <c r="C23" s="101" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="169"/>
       <c r="B24" s="169"/>
       <c r="C24" s="101" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -17111,34 +17112,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -17163,330 +17164,330 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>487</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>509</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>516</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>523</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>536</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -17517,227 +17518,227 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>546</v>
-      </c>
       <c r="D1" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>545</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="D2" t="s">
         <v>548</v>
-      </c>
-      <c r="D2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="66" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="66" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="66" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="66" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="66" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="66" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="66" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="66" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="66" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="66" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="66" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="66" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="66" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="66" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="66" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="67" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="67" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="67" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="67" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="67" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="67" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="67" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="67" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="67" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="66" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="66" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="69" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
